--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>89.17</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.61</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.18</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.66</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005299</t>
+          <t>010898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合A</t>
+          <t>银河产业动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>25.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0513</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005300</t>
+          <t>150968</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家成长优选灵活配置混合C</t>
+          <t>银河研究精选混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>10.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>150968</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河研究精选混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010371</t>
+          <t>005392</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成成长进取混合A</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>5.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010372</t>
+          <t>009911</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>大成成长进取混合C</t>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83.35</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4269</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010898</t>
+          <t>010371</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银河产业动力混合</t>
+          <t>大成成长进取混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>40.68</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>519644</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>银河智联主题灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -790,26 +900,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.12</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519644</t>
+          <t>010372</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银河智联主题灵活配置混合</t>
+          <t>大成成长进取混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>89.00</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -846,26 +976,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>005299</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>万家成长优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005392</t>
+          <t>005300</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+          <t>万家成长优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009911</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.96</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6295</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4372</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3951</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1486,4 +1487,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2019</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.65</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.91</v>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5589</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1794,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>70.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>75.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1989,7 +1990,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2000,17 +2001,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2020,14 +2041,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.57</v>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2036,14 +2079,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -2052,14 +2117,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.65</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2068,14 +2155,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.91</v>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2084,13 +2193,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2578,7 +2579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2589,17 +2590,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2630,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.61</v>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1903</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2625,14 +2668,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.57</v>
       </c>
     </row>
     <row r="4">
@@ -2641,14 +2706,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.4</v>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2657,14 +2744,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.65</v>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2673,14 +2782,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.91</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4097</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2689,13 +2820,487 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3540</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005264</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国都多策略混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.53</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>5.16</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>14</v>
       </c>
       <c r="D3" t="n">
-        <v>3.61</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>2.57</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>3.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
-        <v>3.91</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>2</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>15.58</t>
+          <t>13.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>91.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.64</t>
+          <t>8.27</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1903</t>
+          <t>1.0966</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003293</t>
+          <t>010963</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达科瑞灵活配置混合</t>
+          <t>信澳周期动力混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>30.69</t>
+          <t>39.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>86.29</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.8071</t>
+          <t>1.0738</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161838</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银华创业板两年定期开放混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.91</t>
+          <t>93.58</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.03</t>
+          <t>7.82</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7346</t>
+          <t>0.9666</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -770,32 +787,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>519033</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>海富通国策导向混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>15.04</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.40</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7123</t>
+          <t>0.7851</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>110012</t>
+          <t>161838</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>易方达科汇灵活配置混合</t>
+          <t>银华创业板两年定期开放混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15.23</t>
+          <t>4.45</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>78.93</t>
+          <t>96.33</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>8.87</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.4097</t>
+          <t>0.3947</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>164403</t>
+          <t>015455</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
+          <t>信澳周期动力混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>12.28</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>89.47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.3540</t>
+          <t>0.3316</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>015210</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源沪港深农业混合（LOF）C</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.01</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>90.85</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3540</t>
+          <t>0.2754</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>前海开源沪港深农业混合（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.01</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.60</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2896</t>
+          <t>0.1876</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011649</t>
+          <t>011481</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合A</t>
+          <t>广发瑞锦一年定开混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>84.77</t>
+          <t>89.31</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>6.24</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1933</t>
+          <t>0.1635</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011650</t>
+          <t>015210</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达逆向投资混合C</t>
+          <t>前海开源沪港深农业混合（LOF）C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>84.77</t>
+          <t>89.98</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>5.47</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0537</t>
+          <t>0.1056</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1046,26 +1063,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.59</t>
+          <t>89.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>7.53</t>
+          <t>6.91</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0369</t>
+          <t>0.0871</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1074,36 +1091,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008353</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰达宏利消费行业量化精选混合A</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>74.84</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0148</t>
+          <t>0.0484</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1112,36 +1129,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008354</t>
+          <t>005189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰达宏利消费行业量化精选混合C</t>
+          <t>海富通量化前锋股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.60</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0181</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1150,36 +1167,150 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005264</t>
+          <t>005188</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国都多策略混合</t>
+          <t>海富通量化前锋股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>68.91</t>
+          <t>91.23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0084</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1254,26 +1385,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2759</t>
+          <t>1.1903</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1282,36 +1413,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.8071</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1330,26 +1461,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6087</t>
+          <t>0.7346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1358,36 +1489,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3964</t>
+          <t>0.7123</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1396,36 +1527,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>78.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1628</t>
+          <t>0.4097</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1434,36 +1565,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0797</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1472,36 +1603,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>015210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>前海开源沪港深农业混合（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1510,36 +1641,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.2896</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -1548,36 +1679,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>011649</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>易方达逆向投资混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>84.77</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.1933</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1586,36 +1717,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005082</t>
+          <t>011650</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺德量化蓝筹增强混合A</t>
+          <t>易方达逆向投资混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>84.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1624,36 +1755,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005083</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德量化蓝筹增强混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1662,36 +1793,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005295</t>
+          <t>008353</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺德天富灵活配置混合</t>
+          <t>泰达宏利消费行业量化精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1700,36 +1831,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011761</t>
+          <t>008354</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合型证券投资基金A</t>
+          <t>泰达宏利消费行业量化精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1738,36 +1869,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011762</t>
+          <t>005264</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合型证券投资基金C</t>
+          <t>国都多策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>68.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1776,6 +1907,594 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2135,7 +2854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2267,7 +2986,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2665,7 +3384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3177,7 +3896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300761-立华股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>5.55</v>
+        <v>5.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D3" t="n">
-        <v>5.16</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.61</v>
+        <v>5.16</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>2.57</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3.65</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
-        <v>3.91</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>12</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -616,7 +633,1107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160916</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5892</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5245</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010738</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>164403</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>015210</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深农业混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014832</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴银中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>82.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001364</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成景润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大成优选升级一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>080015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002383</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成趋势回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010991</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1311,594 +2428,6 @@
       </c>
       <c r="H18" t="n">
         <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>090003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成蓝筹稳健混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.1903</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003293</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>易方达科瑞灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.29</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8071</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161838</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>银华创业板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.45</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7346</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519019</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>大成景阳领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.40</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7123</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>110012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达科汇灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>15.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.93</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4097</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>164403</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3540</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>015210</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>前海开源沪港深农业混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3540</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>090016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>大成消费主题混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2896</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>011649</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.77</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1933</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>011650</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达逆向投资混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>84.77</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0537</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002319</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成一带一路灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008353</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰达宏利消费行业量化精选混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0148</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>008354</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰达宏利消费行业量化精选混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005264</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>国都多策略混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>68.91</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1973,26 +2502,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17.92</t>
+          <t>15.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.15</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.12</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2759</t>
+          <t>1.1903</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2001,36 +2530,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519019</t>
+          <t>003293</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景阳领先混合</t>
+          <t>易方达科瑞灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.33</t>
+          <t>30.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.80</t>
+          <t>86.29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.75</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.9039</t>
+          <t>0.8071</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2049,26 +2578,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.44</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.40</t>
+          <t>94.91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>7.03</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.6087</t>
+          <t>0.7346</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2077,36 +2606,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>090016</t>
+          <t>519019</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>大成消费主题混合</t>
+          <t>大成景阳领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>91.26</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>8.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3964</t>
+          <t>0.7123</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2115,36 +2644,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>110012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>易方达科汇灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>15.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>78.93</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1628</t>
+          <t>0.4097</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -2153,36 +2682,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009907</t>
+          <t>164403</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合A</t>
+          <t>前海开源沪港深农业主题精选灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.79</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0797</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2191,36 +2720,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>015210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>前海开源沪港深农业混合（LOF）C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>92.27</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0624</t>
+          <t>0.3540</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -2229,36 +2758,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002319</t>
+          <t>090016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成一带一路灵活配置混合</t>
+          <t>大成消费主题混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>89.01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.06</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0453</t>
+          <t>0.2896</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2267,36 +2796,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009908</t>
+          <t>011649</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>湘财长泽灵活配置混合C</t>
+          <t>易方达逆向投资混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>84.77</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.45</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0205</t>
+          <t>0.1933</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2305,36 +2834,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005082</t>
+          <t>011650</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>诺德量化蓝筹增强混合A</t>
+          <t>易方达逆向投资混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>84.77</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0537</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2343,36 +2872,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005083</t>
+          <t>002319</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>诺德量化蓝筹增强混合C</t>
+          <t>大成一带一路灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>91.78</t>
+          <t>88.59</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>7.53</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0172</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -2381,36 +2910,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005295</t>
+          <t>008353</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>诺德天富灵活配置混合</t>
+          <t>泰达宏利消费行业量化精选混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0148</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -2419,36 +2948,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>011761</t>
+          <t>008354</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合型证券投资基金A</t>
+          <t>泰达宏利消费行业量化精选混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>91.60</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0035</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -2457,36 +2986,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011762</t>
+          <t>005264</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安鑫瑞混合型证券投资基金C</t>
+          <t>国都多策略混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>20.41</t>
+          <t>68.91</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2495,6 +3024,594 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景阳领先混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161838</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>090016</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成消费主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002319</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成一带一路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>诺德天富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011761</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011762</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安鑫瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2854,7 +3971,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2986,7 +4103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3384,7 +4501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3894,136 +5011,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>150968</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银河研究精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4343</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519644</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银河智联主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.18</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0908</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>